--- a/海油一期开发计划.xlsx
+++ b/海油一期开发计划.xlsx
@@ -2108,11 +2108,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F229"/>
+  <dimension ref="A1:I229"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F141" sqref="F141:F146"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G153" sqref="G153:I159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -2126,7 +2126,7 @@
     <col min="7" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:9">
       <c r="A2" s="25" t="s">
         <v>12</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:9">
       <c r="A3" s="25"/>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
@@ -2170,7 +2170,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:9">
       <c r="A4" s="25"/>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
@@ -2181,7 +2181,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:9">
       <c r="A5" s="25" t="s">
         <v>11</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:9">
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="F6" s="25"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:9">
       <c r="A7" s="25"/>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -2223,7 +2223,7 @@
       </c>
       <c r="F7" s="25"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:9">
       <c r="A8" s="25"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -2235,7 +2235,7 @@
       </c>
       <c r="F8" s="25"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:9">
       <c r="A9" s="25"/>
       <c r="B9" s="25" t="s">
         <v>20</v>
@@ -2251,7 +2251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:9">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -2263,7 +2263,7 @@
       </c>
       <c r="F10" s="25"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:9">
       <c r="A11" s="25"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="F11" s="25"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:9">
       <c r="A12" s="25" t="s">
         <v>28</v>
       </c>
@@ -2292,8 +2292,11 @@
       <c r="F12" s="25">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="25"/>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -2304,8 +2307,11 @@
         <v>43</v>
       </c>
       <c r="F13" s="25"/>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
@@ -2318,8 +2324,11 @@
       <c r="F14" s="24">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -2332,8 +2341,11 @@
       <c r="F15" s="24">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
@@ -2346,8 +2358,11 @@
       <c r="F16" s="24">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
@@ -2360,8 +2375,11 @@
       <c r="F17" s="24">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
@@ -2374,8 +2392,11 @@
       <c r="F18" s="24">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="25"/>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
@@ -2388,8 +2409,11 @@
       <c r="F19" s="25">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="25"/>
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
@@ -2400,8 +2424,11 @@
         <v>43</v>
       </c>
       <c r="F20" s="25"/>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="25"/>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
@@ -2412,8 +2439,11 @@
         <v>43</v>
       </c>
       <c r="F21" s="25"/>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="25"/>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
@@ -2426,8 +2456,11 @@
       <c r="F22" s="25">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -2438,8 +2471,11 @@
         <v>43</v>
       </c>
       <c r="F23" s="25"/>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="25"/>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
@@ -2450,8 +2486,11 @@
         <v>43</v>
       </c>
       <c r="F24" s="25"/>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="25"/>
       <c r="B25" s="25"/>
       <c r="C25" s="25" t="s">
@@ -2466,8 +2505,11 @@
       <c r="F25" s="25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="25"/>
       <c r="B26" s="25"/>
       <c r="C26" s="25"/>
@@ -2478,8 +2520,11 @@
         <v>43</v>
       </c>
       <c r="F26" s="25"/>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="25"/>
       <c r="B27" s="25"/>
       <c r="C27" s="25"/>
@@ -2492,8 +2537,11 @@
       <c r="F27" s="24">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="25"/>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
@@ -2506,8 +2554,11 @@
       <c r="F28" s="25">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="25"/>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
@@ -2518,8 +2569,11 @@
         <v>43</v>
       </c>
       <c r="F29" s="25"/>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="25"/>
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
@@ -2532,8 +2586,11 @@
       <c r="F30" s="24">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="25"/>
       <c r="B31" s="25"/>
       <c r="C31" s="25"/>
@@ -2546,8 +2603,11 @@
       <c r="F31" s="25">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="25"/>
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
@@ -2558,8 +2618,11 @@
         <v>43</v>
       </c>
       <c r="F32" s="25"/>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="25"/>
       <c r="B33" s="25"/>
       <c r="C33" s="25"/>
@@ -2572,8 +2635,11 @@
       <c r="F33" s="24">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="25"/>
       <c r="B34" s="25"/>
       <c r="C34" s="25" t="s">
@@ -2588,8 +2654,11 @@
       <c r="F34" s="25">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="25"/>
       <c r="B35" s="25"/>
       <c r="C35" s="25"/>
@@ -2600,8 +2669,11 @@
         <v>43</v>
       </c>
       <c r="F35" s="25"/>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="25"/>
       <c r="B36" s="25"/>
       <c r="C36" s="25"/>
@@ -2614,8 +2686,11 @@
       <c r="F36" s="24">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="25"/>
       <c r="B37" s="25"/>
       <c r="C37" s="25"/>
@@ -2628,8 +2703,11 @@
       <c r="F37" s="25">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="25"/>
       <c r="B38" s="25"/>
       <c r="C38" s="25"/>
@@ -2640,8 +2718,11 @@
         <v>43</v>
       </c>
       <c r="F38" s="25"/>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="25"/>
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
@@ -2654,8 +2735,11 @@
       <c r="F39" s="24">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="25"/>
       <c r="B40" s="25"/>
       <c r="C40" s="25"/>
@@ -2668,8 +2752,11 @@
       <c r="F40" s="25">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="25"/>
       <c r="B41" s="25"/>
       <c r="C41" s="25"/>
@@ -2680,8 +2767,11 @@
         <v>43</v>
       </c>
       <c r="F41" s="25"/>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="25"/>
       <c r="B42" s="25"/>
       <c r="C42" s="25"/>
@@ -2694,8 +2784,11 @@
       <c r="F42" s="24">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="25"/>
       <c r="B43" s="25"/>
       <c r="C43" s="25"/>
@@ -2708,8 +2801,11 @@
       <c r="F43" s="25">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="25"/>
       <c r="B44" s="25"/>
       <c r="C44" s="25"/>
@@ -2720,8 +2816,11 @@
         <v>43</v>
       </c>
       <c r="F44" s="25"/>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="25"/>
       <c r="B45" s="25"/>
       <c r="C45" s="25"/>
@@ -2734,8 +2833,11 @@
       <c r="F45" s="24">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="25"/>
       <c r="B46" s="25"/>
       <c r="C46" s="25" t="s">
@@ -2750,8 +2852,11 @@
       <c r="F46" s="25">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="25"/>
       <c r="B47" s="25"/>
       <c r="C47" s="25"/>
@@ -2762,8 +2867,11 @@
         <v>43</v>
       </c>
       <c r="F47" s="25"/>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="25"/>
       <c r="B48" s="25"/>
       <c r="C48" s="25"/>
@@ -2774,8 +2882,11 @@
         <v>43</v>
       </c>
       <c r="F48" s="25"/>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="25"/>
       <c r="B49" s="25"/>
       <c r="C49" s="25"/>
@@ -2786,8 +2897,11 @@
         <v>43</v>
       </c>
       <c r="F49" s="25"/>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="25"/>
       <c r="B50" s="25"/>
       <c r="C50" s="25" t="s">
@@ -2802,8 +2916,11 @@
       <c r="F50" s="25">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="25"/>
       <c r="B51" s="25"/>
       <c r="C51" s="25"/>
@@ -2814,8 +2931,11 @@
         <v>43</v>
       </c>
       <c r="F51" s="25"/>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="25"/>
       <c r="B52" s="25"/>
       <c r="C52" s="25"/>
@@ -2826,8 +2946,11 @@
         <v>43</v>
       </c>
       <c r="F52" s="25"/>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="25"/>
       <c r="B53" s="25"/>
       <c r="C53" s="25"/>
@@ -2838,8 +2961,11 @@
         <v>43</v>
       </c>
       <c r="F53" s="25"/>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="25"/>
       <c r="B54" s="25"/>
       <c r="C54" s="25" t="s">
@@ -2854,8 +2980,11 @@
       <c r="F54" s="25">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="25"/>
       <c r="B55" s="25"/>
       <c r="C55" s="25"/>
@@ -2866,8 +2995,11 @@
         <v>43</v>
       </c>
       <c r="F55" s="25"/>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="25"/>
       <c r="B56" s="25"/>
       <c r="C56" s="25" t="s">
@@ -2882,8 +3014,11 @@
       <c r="F56" s="25">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="25"/>
       <c r="B57" s="25"/>
       <c r="C57" s="25"/>
@@ -2894,8 +3029,11 @@
         <v>43</v>
       </c>
       <c r="F57" s="25"/>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="25" t="s">
         <v>3</v>
       </c>
@@ -2910,7 +3048,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:9">
       <c r="A59" s="25"/>
       <c r="B59" s="25"/>
       <c r="C59" s="25"/>
@@ -2921,7 +3059,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:9">
       <c r="A60" s="25"/>
       <c r="B60" s="25"/>
       <c r="C60" s="25"/>
@@ -2932,7 +3070,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:9">
       <c r="A61" s="25"/>
       <c r="B61" s="25"/>
       <c r="C61" s="25"/>
@@ -2943,7 +3081,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:9">
       <c r="A62" s="25"/>
       <c r="B62" s="25"/>
       <c r="C62" s="25"/>
@@ -2954,7 +3092,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:9">
       <c r="A63" s="25"/>
       <c r="B63" s="25"/>
       <c r="C63" s="25"/>
@@ -2965,7 +3103,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:9">
       <c r="A64" s="25"/>
       <c r="B64" s="25" t="s">
         <v>88</v>
@@ -4056,7 +4194,7 @@
       </c>
       <c r="F144" s="25"/>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:9">
       <c r="A145" s="25"/>
       <c r="B145" s="25"/>
       <c r="C145" s="25"/>
@@ -4068,7 +4206,7 @@
       </c>
       <c r="F145" s="25"/>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:9">
       <c r="A146" s="25"/>
       <c r="B146" s="25"/>
       <c r="C146" s="25"/>
@@ -4080,7 +4218,7 @@
       </c>
       <c r="F146" s="25"/>
     </row>
-    <row r="147" spans="1:6" ht="33">
+    <row r="147" spans="1:9" ht="33">
       <c r="A147" s="25"/>
       <c r="B147" s="8" t="s">
         <v>153</v>
@@ -4095,7 +4233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:9">
       <c r="A148" s="25"/>
       <c r="B148" s="25" t="s">
         <v>154</v>
@@ -4109,8 +4247,11 @@
       <c r="F148" s="25">
         <v>3</v>
       </c>
-    </row>
-    <row r="149" spans="1:6">
+      <c r="G148" s="25"/>
+      <c r="H148" s="25"/>
+      <c r="I148" s="25"/>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="25"/>
       <c r="B149" s="25"/>
       <c r="D149" s="2" t="s">
@@ -4120,8 +4261,11 @@
         <v>159</v>
       </c>
       <c r="F149" s="25"/>
-    </row>
-    <row r="150" spans="1:6">
+      <c r="G149" s="25"/>
+      <c r="H149" s="25"/>
+      <c r="I149" s="25"/>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="25"/>
       <c r="B150" s="25"/>
       <c r="D150" s="2" t="s">
@@ -4131,8 +4275,11 @@
         <v>159</v>
       </c>
       <c r="F150" s="25"/>
-    </row>
-    <row r="151" spans="1:6">
+      <c r="G150" s="25"/>
+      <c r="H150" s="25"/>
+      <c r="I150" s="25"/>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="25"/>
       <c r="B151" s="25"/>
       <c r="D151" s="2" t="s">
@@ -4142,8 +4289,11 @@
         <v>159</v>
       </c>
       <c r="F151" s="25"/>
-    </row>
-    <row r="152" spans="1:6">
+      <c r="G151" s="25"/>
+      <c r="H151" s="25"/>
+      <c r="I151" s="25"/>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="25"/>
       <c r="B152" s="25"/>
       <c r="D152" s="2" t="s">
@@ -4155,8 +4305,11 @@
       <c r="F152" s="24">
         <v>5</v>
       </c>
-    </row>
-    <row r="153" spans="1:6">
+      <c r="G152" s="25"/>
+      <c r="H152" s="25"/>
+      <c r="I152" s="25"/>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="25"/>
       <c r="B153" s="25"/>
       <c r="C153" s="14" t="s">
@@ -4171,8 +4324,11 @@
       <c r="F153" s="25">
         <v>9</v>
       </c>
-    </row>
-    <row r="154" spans="1:6">
+      <c r="G153" s="25"/>
+      <c r="H153" s="25"/>
+      <c r="I153" s="25"/>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="25"/>
       <c r="B154" s="25"/>
       <c r="C154" s="14" t="s">
@@ -4185,8 +4341,11 @@
         <v>43</v>
       </c>
       <c r="F154" s="25"/>
-    </row>
-    <row r="155" spans="1:6">
+      <c r="G154" s="25"/>
+      <c r="H154" s="25"/>
+      <c r="I154" s="25"/>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="25"/>
       <c r="B155" s="25"/>
       <c r="C155" s="14" t="s">
@@ -4199,8 +4358,11 @@
         <v>43</v>
       </c>
       <c r="F155" s="25"/>
-    </row>
-    <row r="156" spans="1:6">
+      <c r="G155" s="25"/>
+      <c r="H155" s="25"/>
+      <c r="I155" s="25"/>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="25"/>
       <c r="B156" s="25"/>
       <c r="C156" s="14" t="s">
@@ -4213,8 +4375,11 @@
         <v>43</v>
       </c>
       <c r="F156" s="25"/>
-    </row>
-    <row r="157" spans="1:6">
+      <c r="G156" s="25"/>
+      <c r="H156" s="25"/>
+      <c r="I156" s="25"/>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="25"/>
       <c r="B157" s="25"/>
       <c r="C157" s="14" t="s">
@@ -4227,8 +4392,11 @@
         <v>43</v>
       </c>
       <c r="F157" s="25"/>
-    </row>
-    <row r="158" spans="1:6">
+      <c r="G157" s="25"/>
+      <c r="H157" s="25"/>
+      <c r="I157" s="25"/>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="25"/>
       <c r="B158" s="25"/>
       <c r="C158" s="14" t="s">
@@ -4241,8 +4409,11 @@
         <v>43</v>
       </c>
       <c r="F158" s="25"/>
-    </row>
-    <row r="159" spans="1:6">
+      <c r="G158" s="25"/>
+      <c r="H158" s="25"/>
+      <c r="I158" s="25"/>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="25"/>
       <c r="B159" s="25"/>
       <c r="C159" s="14" t="s">
@@ -4255,8 +4426,11 @@
         <v>43</v>
       </c>
       <c r="F159" s="25"/>
-    </row>
-    <row r="160" spans="1:6">
+      <c r="G159" s="25"/>
+      <c r="H159" s="25"/>
+      <c r="I159" s="25"/>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="25" t="s">
         <v>168</v>
       </c>
@@ -5204,21 +5378,90 @@
       <c r="D229" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="110">
-    <mergeCell ref="F172:F174"/>
-    <mergeCell ref="F175:F180"/>
-    <mergeCell ref="F223:F226"/>
-    <mergeCell ref="F192:F194"/>
-    <mergeCell ref="F86:F88"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="F93:F96"/>
-    <mergeCell ref="F97:F99"/>
-    <mergeCell ref="F148:F151"/>
-    <mergeCell ref="F153:F159"/>
-    <mergeCell ref="F195:F199"/>
-    <mergeCell ref="F137:F140"/>
-    <mergeCell ref="F141:F146"/>
+  <mergeCells count="121">
+    <mergeCell ref="G12:I16"/>
+    <mergeCell ref="G17:I18"/>
+    <mergeCell ref="G19:I24"/>
+    <mergeCell ref="G46:I57"/>
+    <mergeCell ref="G148:I151"/>
+    <mergeCell ref="G152:I152"/>
+    <mergeCell ref="G153:I159"/>
+    <mergeCell ref="G25:I29"/>
+    <mergeCell ref="G30:I35"/>
+    <mergeCell ref="G36:I41"/>
+    <mergeCell ref="G42:I45"/>
+    <mergeCell ref="A223:A226"/>
+    <mergeCell ref="B212:B217"/>
+    <mergeCell ref="C212:C217"/>
+    <mergeCell ref="B218:B222"/>
+    <mergeCell ref="C218:C222"/>
+    <mergeCell ref="C206:C211"/>
+    <mergeCell ref="B206:B211"/>
+    <mergeCell ref="F221:F222"/>
+    <mergeCell ref="F201:F202"/>
+    <mergeCell ref="F203:F204"/>
+    <mergeCell ref="B223:B226"/>
+    <mergeCell ref="C223:C226"/>
+    <mergeCell ref="A172:A199"/>
+    <mergeCell ref="B200:B205"/>
+    <mergeCell ref="C200:C205"/>
+    <mergeCell ref="B181:B186"/>
+    <mergeCell ref="C181:C186"/>
+    <mergeCell ref="B187:B191"/>
+    <mergeCell ref="C187:C191"/>
+    <mergeCell ref="B172:B174"/>
+    <mergeCell ref="C172:C174"/>
+    <mergeCell ref="B175:B180"/>
+    <mergeCell ref="C175:C180"/>
+    <mergeCell ref="B192:B194"/>
+    <mergeCell ref="C192:C194"/>
+    <mergeCell ref="A200:A222"/>
+    <mergeCell ref="B195:B199"/>
+    <mergeCell ref="C195:C199"/>
+    <mergeCell ref="B160:B167"/>
+    <mergeCell ref="A160:A171"/>
+    <mergeCell ref="C104:C107"/>
+    <mergeCell ref="B100:B136"/>
+    <mergeCell ref="B168:B171"/>
+    <mergeCell ref="C168:C171"/>
+    <mergeCell ref="C100:C103"/>
+    <mergeCell ref="A80:A159"/>
+    <mergeCell ref="B148:B159"/>
+    <mergeCell ref="C108:C112"/>
+    <mergeCell ref="C113:C124"/>
+    <mergeCell ref="C125:C136"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="C162:C167"/>
+    <mergeCell ref="B89:B99"/>
+    <mergeCell ref="B137:B146"/>
+    <mergeCell ref="C137:C140"/>
+    <mergeCell ref="C141:C146"/>
+    <mergeCell ref="B80:B88"/>
+    <mergeCell ref="B64:B74"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B12:B57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="C97:C99"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="C93:C96"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="F80:F82"/>
+    <mergeCell ref="F83:F85"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="C64:C74"/>
     <mergeCell ref="F37:F38"/>
     <mergeCell ref="F40:F41"/>
     <mergeCell ref="F43:F44"/>
@@ -5243,78 +5486,20 @@
     <mergeCell ref="C46:C49"/>
     <mergeCell ref="C50:C53"/>
     <mergeCell ref="F54:F55"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="C97:C99"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C76:C79"/>
-    <mergeCell ref="C93:C96"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="F80:F82"/>
-    <mergeCell ref="F83:F85"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="C64:C74"/>
-    <mergeCell ref="B64:B74"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B12:B57"/>
-    <mergeCell ref="B160:B167"/>
-    <mergeCell ref="A160:A171"/>
-    <mergeCell ref="C104:C107"/>
-    <mergeCell ref="B100:B136"/>
-    <mergeCell ref="B168:B171"/>
-    <mergeCell ref="C168:C171"/>
-    <mergeCell ref="C100:C103"/>
-    <mergeCell ref="A80:A159"/>
-    <mergeCell ref="B148:B159"/>
-    <mergeCell ref="C108:C112"/>
-    <mergeCell ref="C113:C124"/>
-    <mergeCell ref="C125:C136"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="C162:C167"/>
-    <mergeCell ref="B89:B99"/>
-    <mergeCell ref="B137:B146"/>
-    <mergeCell ref="C137:C140"/>
-    <mergeCell ref="C141:C146"/>
-    <mergeCell ref="B80:B88"/>
-    <mergeCell ref="A172:A199"/>
-    <mergeCell ref="B200:B205"/>
-    <mergeCell ref="C200:C205"/>
-    <mergeCell ref="B181:B186"/>
-    <mergeCell ref="C181:C186"/>
-    <mergeCell ref="B187:B191"/>
-    <mergeCell ref="C187:C191"/>
-    <mergeCell ref="B172:B174"/>
-    <mergeCell ref="C172:C174"/>
-    <mergeCell ref="B175:B180"/>
-    <mergeCell ref="C175:C180"/>
-    <mergeCell ref="B192:B194"/>
-    <mergeCell ref="C192:C194"/>
-    <mergeCell ref="A200:A222"/>
-    <mergeCell ref="B195:B199"/>
-    <mergeCell ref="C195:C199"/>
-    <mergeCell ref="A223:A226"/>
-    <mergeCell ref="B212:B217"/>
-    <mergeCell ref="C212:C217"/>
-    <mergeCell ref="B218:B222"/>
-    <mergeCell ref="C218:C222"/>
-    <mergeCell ref="C206:C211"/>
-    <mergeCell ref="B206:B211"/>
-    <mergeCell ref="F221:F222"/>
-    <mergeCell ref="F201:F202"/>
-    <mergeCell ref="F203:F204"/>
-    <mergeCell ref="B223:B226"/>
-    <mergeCell ref="C223:C226"/>
+    <mergeCell ref="F172:F174"/>
+    <mergeCell ref="F175:F180"/>
+    <mergeCell ref="F223:F226"/>
+    <mergeCell ref="F192:F194"/>
+    <mergeCell ref="F86:F88"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="F93:F96"/>
+    <mergeCell ref="F97:F99"/>
+    <mergeCell ref="F148:F151"/>
+    <mergeCell ref="F153:F159"/>
+    <mergeCell ref="F195:F199"/>
+    <mergeCell ref="F137:F140"/>
+    <mergeCell ref="F141:F146"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/海油一期开发计划.xlsx
+++ b/海油一期开发计划.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="105" yWindow="855" windowWidth="19440" windowHeight="13800" tabRatio="212"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="海油一期" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1624,7 +1624,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1704,6 +1704,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2111,8 +2114,8 @@
   <dimension ref="A1:I229"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G153" sqref="G153:I159"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -2292,7 +2295,9 @@
       <c r="F12" s="25">
         <v>1</v>
       </c>
-      <c r="G12" s="25"/>
+      <c r="G12" s="27">
+        <v>42021</v>
+      </c>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
     </row>
@@ -2409,7 +2414,9 @@
       <c r="F19" s="25">
         <v>2</v>
       </c>
-      <c r="G19" s="25"/>
+      <c r="G19" s="27">
+        <v>42028</v>
+      </c>
       <c r="H19" s="25"/>
       <c r="I19" s="25"/>
     </row>
@@ -2852,7 +2859,9 @@
       <c r="F46" s="25">
         <v>2</v>
       </c>
-      <c r="G46" s="25"/>
+      <c r="G46" s="27">
+        <v>42034</v>
+      </c>
       <c r="H46" s="25"/>
       <c r="I46" s="25"/>
     </row>
@@ -5379,89 +5388,20 @@
     </row>
   </sheetData>
   <mergeCells count="121">
-    <mergeCell ref="G12:I16"/>
-    <mergeCell ref="G17:I18"/>
-    <mergeCell ref="G19:I24"/>
-    <mergeCell ref="G46:I57"/>
-    <mergeCell ref="G148:I151"/>
-    <mergeCell ref="G152:I152"/>
-    <mergeCell ref="G153:I159"/>
-    <mergeCell ref="G25:I29"/>
-    <mergeCell ref="G30:I35"/>
-    <mergeCell ref="G36:I41"/>
-    <mergeCell ref="G42:I45"/>
-    <mergeCell ref="A223:A226"/>
-    <mergeCell ref="B212:B217"/>
-    <mergeCell ref="C212:C217"/>
-    <mergeCell ref="B218:B222"/>
-    <mergeCell ref="C218:C222"/>
-    <mergeCell ref="C206:C211"/>
-    <mergeCell ref="B206:B211"/>
-    <mergeCell ref="F221:F222"/>
-    <mergeCell ref="F201:F202"/>
-    <mergeCell ref="F203:F204"/>
-    <mergeCell ref="B223:B226"/>
-    <mergeCell ref="C223:C226"/>
-    <mergeCell ref="A172:A199"/>
-    <mergeCell ref="B200:B205"/>
-    <mergeCell ref="C200:C205"/>
-    <mergeCell ref="B181:B186"/>
-    <mergeCell ref="C181:C186"/>
-    <mergeCell ref="B187:B191"/>
-    <mergeCell ref="C187:C191"/>
-    <mergeCell ref="B172:B174"/>
-    <mergeCell ref="C172:C174"/>
-    <mergeCell ref="B175:B180"/>
-    <mergeCell ref="C175:C180"/>
-    <mergeCell ref="B192:B194"/>
-    <mergeCell ref="C192:C194"/>
-    <mergeCell ref="A200:A222"/>
-    <mergeCell ref="B195:B199"/>
-    <mergeCell ref="C195:C199"/>
-    <mergeCell ref="B160:B167"/>
-    <mergeCell ref="A160:A171"/>
-    <mergeCell ref="C104:C107"/>
-    <mergeCell ref="B100:B136"/>
-    <mergeCell ref="B168:B171"/>
-    <mergeCell ref="C168:C171"/>
-    <mergeCell ref="C100:C103"/>
-    <mergeCell ref="A80:A159"/>
-    <mergeCell ref="B148:B159"/>
-    <mergeCell ref="C108:C112"/>
-    <mergeCell ref="C113:C124"/>
-    <mergeCell ref="C125:C136"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="C162:C167"/>
-    <mergeCell ref="B89:B99"/>
-    <mergeCell ref="B137:B146"/>
-    <mergeCell ref="C137:C140"/>
-    <mergeCell ref="C141:C146"/>
-    <mergeCell ref="B80:B88"/>
-    <mergeCell ref="B64:B74"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B12:B57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="C97:C99"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C76:C79"/>
-    <mergeCell ref="C93:C96"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="F80:F82"/>
-    <mergeCell ref="F83:F85"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="C64:C74"/>
+    <mergeCell ref="F172:F174"/>
+    <mergeCell ref="F175:F180"/>
+    <mergeCell ref="F223:F226"/>
+    <mergeCell ref="F192:F194"/>
+    <mergeCell ref="F86:F88"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="F93:F96"/>
+    <mergeCell ref="F97:F99"/>
+    <mergeCell ref="F148:F151"/>
+    <mergeCell ref="F153:F159"/>
+    <mergeCell ref="F195:F199"/>
+    <mergeCell ref="F137:F140"/>
+    <mergeCell ref="F141:F146"/>
     <mergeCell ref="F37:F38"/>
     <mergeCell ref="F40:F41"/>
     <mergeCell ref="F43:F44"/>
@@ -5486,20 +5426,89 @@
     <mergeCell ref="C46:C49"/>
     <mergeCell ref="C50:C53"/>
     <mergeCell ref="F54:F55"/>
-    <mergeCell ref="F172:F174"/>
-    <mergeCell ref="F175:F180"/>
-    <mergeCell ref="F223:F226"/>
-    <mergeCell ref="F192:F194"/>
-    <mergeCell ref="F86:F88"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="F93:F96"/>
-    <mergeCell ref="F97:F99"/>
-    <mergeCell ref="F148:F151"/>
-    <mergeCell ref="F153:F159"/>
-    <mergeCell ref="F195:F199"/>
-    <mergeCell ref="F137:F140"/>
-    <mergeCell ref="F141:F146"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="C97:C99"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="C93:C96"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="F80:F82"/>
+    <mergeCell ref="F83:F85"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="C64:C74"/>
+    <mergeCell ref="B64:B74"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B12:B57"/>
+    <mergeCell ref="B160:B167"/>
+    <mergeCell ref="A160:A171"/>
+    <mergeCell ref="C104:C107"/>
+    <mergeCell ref="B100:B136"/>
+    <mergeCell ref="B168:B171"/>
+    <mergeCell ref="C168:C171"/>
+    <mergeCell ref="C100:C103"/>
+    <mergeCell ref="A80:A159"/>
+    <mergeCell ref="B148:B159"/>
+    <mergeCell ref="C108:C112"/>
+    <mergeCell ref="C113:C124"/>
+    <mergeCell ref="C125:C136"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="C162:C167"/>
+    <mergeCell ref="B89:B99"/>
+    <mergeCell ref="B137:B146"/>
+    <mergeCell ref="C137:C140"/>
+    <mergeCell ref="C141:C146"/>
+    <mergeCell ref="B80:B88"/>
+    <mergeCell ref="A172:A199"/>
+    <mergeCell ref="B200:B205"/>
+    <mergeCell ref="C200:C205"/>
+    <mergeCell ref="B181:B186"/>
+    <mergeCell ref="C181:C186"/>
+    <mergeCell ref="B187:B191"/>
+    <mergeCell ref="C187:C191"/>
+    <mergeCell ref="B172:B174"/>
+    <mergeCell ref="C172:C174"/>
+    <mergeCell ref="B175:B180"/>
+    <mergeCell ref="C175:C180"/>
+    <mergeCell ref="B192:B194"/>
+    <mergeCell ref="C192:C194"/>
+    <mergeCell ref="A200:A222"/>
+    <mergeCell ref="B195:B199"/>
+    <mergeCell ref="C195:C199"/>
+    <mergeCell ref="A223:A226"/>
+    <mergeCell ref="B212:B217"/>
+    <mergeCell ref="C212:C217"/>
+    <mergeCell ref="B218:B222"/>
+    <mergeCell ref="C218:C222"/>
+    <mergeCell ref="C206:C211"/>
+    <mergeCell ref="B206:B211"/>
+    <mergeCell ref="F221:F222"/>
+    <mergeCell ref="F201:F202"/>
+    <mergeCell ref="F203:F204"/>
+    <mergeCell ref="B223:B226"/>
+    <mergeCell ref="C223:C226"/>
+    <mergeCell ref="G12:I16"/>
+    <mergeCell ref="G17:I18"/>
+    <mergeCell ref="G19:I24"/>
+    <mergeCell ref="G46:I57"/>
+    <mergeCell ref="G148:I151"/>
+    <mergeCell ref="G152:I152"/>
+    <mergeCell ref="G153:I159"/>
+    <mergeCell ref="G25:I29"/>
+    <mergeCell ref="G30:I35"/>
+    <mergeCell ref="G36:I41"/>
+    <mergeCell ref="G42:I45"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
